--- a/data/trans_orig/P16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CB1D58-36C9-4AA6-8931-E0549C79D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3ED4F4D-0FF4-4BBB-8023-182641FA7DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51CEBA0A-0C60-4ED4-ABAC-D59C778E3285}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF8BA22-B90E-4F94-A15C-1665834052C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="182">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -112,37 +112,37 @@
     <t>88,59%</t>
   </si>
   <si>
-    <t>54,22%</t>
+    <t>46,02%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>75,86%</t>
+    <t>75,77%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>76,12%</t>
+    <t>74,33%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>45,78%</t>
+    <t>53,98%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>24,14%</t>
+    <t>24,23%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>23,88%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -154,13 +154,13 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>82,82%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>88,67%</t>
+    <t>87,17%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -169,13 +169,13 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>17,18%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>11,33%</t>
+    <t>12,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -187,13 +187,13 @@
     <t>97,68%</t>
   </si>
   <si>
-    <t>88,24%</t>
+    <t>89,49%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>89,6%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -202,13 +202,13 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>11,76%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>10,4%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -217,7 +217,7 @@
     <t>93,49%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>96,18%</t>
@@ -226,13 +226,13 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>93,27%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -241,7 +241,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>6,73%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -253,13 +253,10 @@
     <t>96,3%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>90,25%</t>
+    <t>90,07%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -268,55 +265,52 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -358,25 +352,25 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>89,53%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,48%</t>
+    <t>92,1%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,47%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,52%</t>
+    <t>7,9%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -409,7 +403,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>94,97%</t>
+    <t>95,06%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -421,7 +415,7 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -433,13 +427,13 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -448,13 +442,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
@@ -1001,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577600C8-1BEF-4E00-B63C-972C4C012B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482AFF61-355A-41CF-B31F-B9779BD3B7E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1930,10 +1924,10 @@
         <v>85561</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -1957,7 +1951,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1966,13 +1960,13 @@
         <v>2521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1981,13 +1975,13 @@
         <v>2521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,10 +2049,10 @@
         <v>66425</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2070,13 +2064,13 @@
         <v>209596</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -2088,10 +2082,10 @@
         <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2100,13 @@
         <v>1863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2121,13 +2115,13 @@
         <v>5572</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2139,10 +2133,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2192,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A5C789-ED2E-4BA6-9117-A18EA99DE3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A052DB80-9674-4ACA-961E-F16011B686B3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2237,7 +2231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2347,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2362,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2377,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2401,7 +2395,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2416,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2431,7 +2425,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2517,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2532,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2556,7 +2550,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2571,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2586,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2669,10 +2663,10 @@
         <v>55147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2684,10 +2678,10 @@
         <v>76630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2711,7 +2705,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2720,13 +2714,13 @@
         <v>1176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2735,13 +2729,13 @@
         <v>1176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2827,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2866,7 +2860,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2881,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2967,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2982,7 +2976,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2997,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3021,7 +3015,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3036,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3051,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3134,10 +3128,10 @@
         <v>88641</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3149,10 +3143,10 @@
         <v>115829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3176,7 +3170,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3185,13 +3179,13 @@
         <v>1087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3200,13 +3194,13 @@
         <v>1087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3289,10 +3283,10 @@
         <v>294341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3304,10 +3298,10 @@
         <v>399295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3331,7 +3325,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3340,13 +3334,13 @@
         <v>2264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3355,13 +3349,13 @@
         <v>2264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3411,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F59B08-D0F4-448E-960D-33CBAD271386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8D978E-E443-4672-AD40-9B7D84A050DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3566,7 +3560,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3578,7 +3572,7 @@
         <v>1955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -3593,10 +3587,10 @@
         <v>3989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3620,7 +3614,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3629,7 +3623,7 @@
         <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3644,13 +3638,13 @@
         <v>925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3715,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3736,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3751,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3775,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3790,7 +3784,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3805,7 +3799,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3870,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3888,10 +3882,10 @@
         <v>26919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3903,10 +3897,10 @@
         <v>40873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3930,7 +3924,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3939,13 +3933,13 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3954,13 +3948,13 @@
         <v>985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4046,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4061,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4085,7 +4079,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4100,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4115,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4216,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4240,7 +4234,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4270,7 +4264,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4356,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4371,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4395,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4410,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4425,7 +4419,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,10 +4502,10 @@
         <v>246125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4523,10 +4517,10 @@
         <v>319164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4559,13 +4553,13 @@
         <v>1909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4574,13 +4568,13 @@
         <v>1909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,7 +4630,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3ED4F4D-0FF4-4BBB-8023-182641FA7DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{630C1E43-CADC-42E7-94E1-6282B32ED044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF8BA22-B90E-4F94-A15C-1665834052C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19215B15-ACD8-47B8-A543-F5FB294850E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="186">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -112,37 +112,37 @@
     <t>88,59%</t>
   </si>
   <si>
-    <t>46,02%</t>
+    <t>54,41%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>75,77%</t>
+    <t>72,23%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>74,33%</t>
+    <t>77,55%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>53,98%</t>
+    <t>45,59%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>24,23%</t>
+    <t>27,77%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>25,67%</t>
+    <t>22,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -154,13 +154,13 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>79,43%</t>
+    <t>79,62%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>87,17%</t>
+    <t>86,95%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -169,13 +169,13 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>20,38%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>12,83%</t>
+    <t>13,05%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -187,13 +187,13 @@
     <t>97,68%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>88,56%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>89,6%</t>
+    <t>90,66%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -202,13 +202,13 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>10,4%</t>
+    <t>9,34%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -217,7 +217,7 @@
     <t>93,49%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>73,03%</t>
   </si>
   <si>
     <t>96,18%</t>
@@ -226,13 +226,13 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>93,27%</t>
+    <t>93,54%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>26,97%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -241,7 +241,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>6,73%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -253,10 +253,13 @@
     <t>96,3%</t>
   </si>
   <si>
+    <t>87,35%</t>
+  </si>
+  <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>90,07%</t>
+    <t>91,11%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -265,52 +268,55 @@
     <t>3,7%</t>
   </si>
   <si>
+    <t>12,65%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>9,93%</t>
+    <t>8,89%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -352,25 +358,25 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,53%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,1%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,47%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,9%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -403,37 +409,43 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>95,06%</t>
+    <t>93,34%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
+    <t>95,32%</t>
+  </si>
+  <si>
     <t>7,61%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
     <t>97,96%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -442,16 +454,16 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -463,7 +475,7 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>21,11%</t>
+    <t>21,33%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -475,7 +487,7 @@
     <t>18,81%</t>
   </si>
   <si>
-    <t>78,89%</t>
+    <t>78,67%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -490,13 +502,13 @@
     <t>96,47%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>81,29%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>88,16%</t>
+    <t>86,06%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -505,13 +517,13 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -565,25 +577,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482AFF61-355A-41CF-B31F-B9779BD3B7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982230CA-FC42-4E78-8052-B1E1EE2B349F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1912,7 +1924,7 @@
         <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1924,10 +1936,10 @@
         <v>85561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -1951,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1960,13 +1972,13 @@
         <v>2521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1975,13 +1987,13 @@
         <v>2521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,10 +2061,10 @@
         <v>66425</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2064,13 +2076,13 @@
         <v>209596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -2082,10 +2094,10 @@
         <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2112,13 @@
         <v>1863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2115,13 +2127,13 @@
         <v>5572</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2133,10 +2145,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2204,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A052DB80-9674-4ACA-961E-F16011B686B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B9A1E-ADB9-4FF2-9D87-858C828E99EE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,7 +2243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2341,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2356,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2371,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2395,7 +2407,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2410,7 +2422,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2425,7 +2437,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2511,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2526,7 +2538,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2550,7 +2562,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2565,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2580,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2663,10 +2675,10 @@
         <v>55147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2678,10 +2690,10 @@
         <v>76630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2705,7 +2717,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2714,13 +2726,13 @@
         <v>1176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2729,13 +2741,13 @@
         <v>1176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2821,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2860,7 +2872,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2875,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2961,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2976,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2991,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3015,7 +3027,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3030,7 +3042,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3045,7 +3057,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3128,10 +3140,10 @@
         <v>88641</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3143,10 +3155,10 @@
         <v>115829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3170,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3179,13 +3191,13 @@
         <v>1087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3194,13 +3206,13 @@
         <v>1087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3283,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3283,10 +3295,10 @@
         <v>294341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3298,10 +3310,10 @@
         <v>399295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3325,7 +3337,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3334,13 +3346,13 @@
         <v>2264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3349,13 +3361,13 @@
         <v>2264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,7 +3423,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8D978E-E443-4672-AD40-9B7D84A050DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BFC51B-5006-4B23-9051-BA6BA3AF081F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,7 +3462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3560,7 +3572,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3572,7 +3584,7 @@
         <v>1955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -3587,10 +3599,10 @@
         <v>3989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3614,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3623,7 +3635,7 @@
         <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3638,13 +3650,13 @@
         <v>925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3730,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3745,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3769,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3784,7 +3796,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3799,7 +3811,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3882,10 +3894,10 @@
         <v>26919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3897,10 +3909,10 @@
         <v>40873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3924,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3933,13 +3945,13 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3948,13 +3960,13 @@
         <v>985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4040,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4055,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4079,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4094,7 +4106,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4109,7 +4121,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4192,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4210,7 +4222,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4234,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4264,7 +4276,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4347,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4350,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4365,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4389,7 +4401,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4419,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,10 +4514,10 @@
         <v>246125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4517,10 +4529,10 @@
         <v>319164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4553,13 +4565,13 @@
         <v>1909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4568,13 +4580,13 @@
         <v>1909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4642,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630C1E43-CADC-42E7-94E1-6282B32ED044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E4591A-D5CE-4861-B14F-2BC92AC29049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19215B15-ACD8-47B8-A543-F5FB294850E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9D5DB35-AE2F-4C49-899F-8D785DDA0187}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="184">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,37 +112,37 @@
     <t>88,59%</t>
   </si>
   <si>
-    <t>54,41%</t>
+    <t>54,22%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>72,23%</t>
+    <t>75,86%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>76,12%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>45,59%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>27,77%</t>
+    <t>24,14%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>23,88%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -154,13 +154,13 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>82,82%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>86,95%</t>
+    <t>88,67%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -169,13 +169,13 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>17,18%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>13,05%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -187,13 +187,13 @@
     <t>97,68%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,66%</t>
+    <t>90,81%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -202,13 +202,13 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -217,7 +217,7 @@
     <t>93,49%</t>
   </si>
   <si>
-    <t>73,03%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>96,18%</t>
@@ -226,13 +226,13 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>93,54%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>26,97%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -241,7 +241,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -253,13 +253,13 @@
     <t>96,3%</t>
   </si>
   <si>
-    <t>87,35%</t>
+    <t>88,23%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,11%</t>
+    <t>90,25%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -268,55 +268,55 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>12,65%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>8,89%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -358,25 +358,25 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,95%</t>
+    <t>89,43%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,48%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,52%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -409,43 +409,37 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>94,97%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
     <t>7,61%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -454,13 +448,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
@@ -475,7 +469,7 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>21,33%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -487,7 +481,7 @@
     <t>18,81%</t>
   </si>
   <si>
-    <t>78,67%</t>
+    <t>78,89%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -502,13 +496,13 @@
     <t>96,47%</t>
   </si>
   <si>
-    <t>81,29%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>86,06%</t>
+    <t>88,16%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -517,13 +511,13 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>18,71%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>13,94%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -577,25 +571,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,1%</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982230CA-FC42-4E78-8052-B1E1EE2B349F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A13933-2F1F-4842-89DC-318E0B1A98AA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B9A1E-ADB9-4FF2-9D87-858C828E99EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36DA8DD-CBE5-470A-B45E-F78697CD6E1D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,7 +3152,7 @@
         <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3182,7 +3176,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3191,13 +3185,13 @@
         <v>1087</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3206,13 +3200,13 @@
         <v>1087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3295,10 +3289,10 @@
         <v>294341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3310,10 +3304,10 @@
         <v>399295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3337,7 +3331,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3346,13 +3340,13 @@
         <v>2264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3361,13 +3355,13 @@
         <v>2264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BFC51B-5006-4B23-9051-BA6BA3AF081F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4D0F4-68F4-433E-96CE-17A0EC6D94E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3462,7 +3456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3584,7 +3578,7 @@
         <v>1955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -3599,10 +3593,10 @@
         <v>3989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3626,7 +3620,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3635,7 +3629,7 @@
         <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3650,13 +3644,13 @@
         <v>925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3736,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3796,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3882,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3894,10 +3888,10 @@
         <v>26919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3909,10 +3903,10 @@
         <v>40873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3936,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3945,13 +3939,13 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3960,13 +3954,13 @@
         <v>985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4052,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4067,7 +4061,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4091,7 +4085,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4106,7 +4100,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4121,7 +4115,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4222,7 +4216,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4246,7 +4240,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4276,7 +4270,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4362,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4377,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4401,7 +4395,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4416,7 +4410,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4431,7 +4425,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,10 +4508,10 @@
         <v>246125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4529,10 +4523,10 @@
         <v>319164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4565,13 +4559,13 @@
         <v>1909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4580,13 +4574,13 @@
         <v>1909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E4591A-D5CE-4861-B14F-2BC92AC29049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECA842E-D0BA-47B4-8001-70FFA7CC1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9D5DB35-AE2F-4C49-899F-8D785DDA0187}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C31998BB-745F-43AA-A0C0-8A161216FD02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="189">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>88,59%</t>
@@ -145,7 +145,7 @@
     <t>23,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -178,7 +178,7 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -211,7 +211,7 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>93,49%</t>
@@ -244,37 +244,46 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>97,27%</t>
@@ -403,28 +412,40 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -484,12 +505,6 @@
     <t>78,89%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>87,39%</t>
   </si>
   <si>
@@ -550,22 +565,22 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -1001,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A13933-2F1F-4842-89DC-318E0B1A98AA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178564A-B4CB-4FC4-80AB-5CC4A6BCDFDB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1894,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>20022</v>
+        <v>10989</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -1909,34 +1924,34 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>65540</v>
+        <v>35039</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>85561</v>
+        <v>46028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,37 +1972,37 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,10 +2011,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>20022</v>
+        <v>10989</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2011,10 +2026,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I21" s="7">
-        <v>68061</v>
+        <v>35039</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2026,10 +2041,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="N21" s="7">
-        <v>88082</v>
+        <v>46028</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2043,55 +2058,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>66425</v>
+        <v>9033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I22" s="7">
-        <v>209596</v>
+        <v>30500</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>276022</v>
+        <v>39533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2115,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
-        <v>1863</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
       <c r="I23" s="7">
-        <v>5572</v>
+        <v>2521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>7435</v>
+        <v>2521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,63 +2166,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9033</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>33021</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42054</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7">
+        <v>66425</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>203</v>
+      </c>
+      <c r="I25" s="7">
+        <v>209596</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="7">
+        <v>270</v>
+      </c>
+      <c r="N25" s="7">
+        <v>276022</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1863</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5572</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7435</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>69</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>68288</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>208</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>215168</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>277</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>283457</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2220,8 +2391,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36DA8DD-CBE5-470A-B45E-F78697CD6E1D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8D6625-9BC0-47AF-A5B9-C3296A1C5699}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2237,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2347,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2362,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2377,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2401,7 +2572,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2416,7 +2587,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2431,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2517,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2532,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2556,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2571,7 +2742,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2586,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2669,10 +2840,10 @@
         <v>55147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2684,10 +2855,10 @@
         <v>76630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2711,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2720,13 +2891,13 @@
         <v>1176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2735,13 +2906,13 @@
         <v>1176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2827,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2866,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2881,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2967,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2982,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2997,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3021,7 +3192,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3036,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3051,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,49 +3284,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27188</v>
+        <v>13362</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>88641</v>
+        <v>46122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>115829</v>
+        <v>59484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,34 +3347,34 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>127</v>
@@ -3215,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>27188</v>
+        <v>13362</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3230,10 +3401,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>89728</v>
+        <v>46122</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3245,10 +3416,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N21" s="7">
-        <v>116916</v>
+        <v>59484</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3262,52 +3433,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>104954</v>
+        <v>13826</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>38</v>
+      </c>
+      <c r="I22" s="7">
+        <v>42518</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="7">
-        <v>279</v>
-      </c>
-      <c r="I22" s="7">
-        <v>294341</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>50</v>
+      </c>
+      <c r="N22" s="7">
+        <v>56345</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="7">
-        <v>372</v>
-      </c>
-      <c r="N22" s="7">
-        <v>399295</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3331,37 +3502,37 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1087</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1087</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2264</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2264</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,63 +3541,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13826</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>39</v>
+      </c>
+      <c r="I24" s="7">
+        <v>43605</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7">
+        <v>57432</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>93</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>104954</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>279</v>
+      </c>
+      <c r="I25" s="7">
+        <v>294341</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>372</v>
+      </c>
+      <c r="N25" s="7">
+        <v>399295</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2264</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2264</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>93</v>
+      </c>
+      <c r="D27" s="7">
+        <v>104954</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>281</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>296605</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>374</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>401559</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3439,8 +3766,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4D0F4-68F4-433E-96CE-17A0EC6D94E0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429F2515-DBA0-406F-BFE0-11120A1D5607}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3456,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3566,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3578,7 +3905,7 @@
         <v>1955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -3593,10 +3920,10 @@
         <v>3989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3620,7 +3947,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3629,7 +3956,7 @@
         <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -3644,13 +3971,13 @@
         <v>925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3736,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3751,7 +4078,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3775,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3790,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3805,7 +4132,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3888,10 +4215,10 @@
         <v>26919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3903,10 +4230,10 @@
         <v>40873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3930,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3939,13 +4266,13 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3954,13 +4281,13 @@
         <v>985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4358,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4046,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4061,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4085,7 +4412,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4100,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4115,7 +4442,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4216,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4240,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4270,7 +4597,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,46 +4659,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>16900</v>
+        <v>6627</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>95087</v>
+        <v>50515</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>111987</v>
+        <v>57142</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4395,7 +4722,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4410,7 +4737,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4425,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>16900</v>
+        <v>6627</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4449,10 +4776,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>95087</v>
+        <v>50515</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4464,10 +4791,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="N21" s="7">
-        <v>111987</v>
+        <v>57142</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4481,55 +4808,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>73039</v>
+        <v>10273</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>246125</v>
+        <v>44572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="N22" s="7">
-        <v>319164</v>
+        <v>54845</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,37 +4877,37 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1909</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1909</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,63 +4916,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10273</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7">
+        <v>44572</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>46</v>
+      </c>
+      <c r="N24" s="7">
+        <v>54845</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>72</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>73039</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>222</v>
+      </c>
+      <c r="I25" s="7">
+        <v>246125</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>294</v>
+      </c>
+      <c r="N25" s="7">
+        <v>319164</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1909</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1909</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>72</v>
+      </c>
+      <c r="D27" s="7">
+        <v>73039</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>224</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>248034</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>296</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>321073</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
